--- a/www/IndicatorsPerCountry/Jordan_GDPperCapita_TerritorialRef_1946_2012_CCode_400.xlsx
+++ b/www/IndicatorsPerCountry/Jordan_GDPperCapita_TerritorialRef_1946_2012_CCode_400.xlsx
@@ -258,13 +258,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Jordan_GDPperCapita_TerritorialRef_1946_2012_CCode_400.xlsx
+++ b/www/IndicatorsPerCountry/Jordan_GDPperCapita_TerritorialRef_1946_2012_CCode_400.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="89">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,199 +36,214 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>590</t>
+    <t>877</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>718</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>1663</t>
-  </si>
-  <si>
-    <t>1695</t>
-  </si>
-  <si>
-    <t>1726</t>
-  </si>
-  <si>
-    <t>1757</t>
-  </si>
-  <si>
-    <t>1787</t>
-  </si>
-  <si>
-    <t>1625</t>
-  </si>
-  <si>
-    <t>2139</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2220</t>
-  </si>
-  <si>
-    <t>2287</t>
-  </si>
-  <si>
-    <t>2330</t>
-  </si>
-  <si>
-    <t>2685</t>
-  </si>
-  <si>
-    <t>2620</t>
-  </si>
-  <si>
-    <t>2649</t>
-  </si>
-  <si>
-    <t>2981</t>
-  </si>
-  <si>
-    <t>3183</t>
-  </si>
-  <si>
-    <t>3137</t>
-  </si>
-  <si>
-    <t>3059</t>
-  </si>
-  <si>
-    <t>2674</t>
-  </si>
-  <si>
-    <t>2773</t>
-  </si>
-  <si>
-    <t>2395</t>
-  </si>
-  <si>
-    <t>2366</t>
-  </si>
-  <si>
-    <t>2355</t>
-  </si>
-  <si>
-    <t>2388</t>
-  </si>
-  <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2583</t>
-  </si>
-  <si>
-    <t>3096</t>
-  </si>
-  <si>
-    <t>3182</t>
-  </si>
-  <si>
-    <t>3718</t>
-  </si>
-  <si>
-    <t>3919</t>
-  </si>
-  <si>
-    <t>4480</t>
-  </si>
-  <si>
-    <t>4502</t>
-  </si>
-  <si>
-    <t>4643</t>
-  </si>
-  <si>
-    <t>4556</t>
-  </si>
-  <si>
-    <t>4767</t>
-  </si>
-  <si>
-    <t>4754</t>
-  </si>
-  <si>
-    <t>5002</t>
-  </si>
-  <si>
-    <t>4963</t>
-  </si>
-  <si>
-    <t>4750</t>
-  </si>
-  <si>
-    <t>4103</t>
-  </si>
-  <si>
-    <t>3792.40048436</t>
-  </si>
-  <si>
-    <t>3462.99393081</t>
-  </si>
-  <si>
-    <t>3718.86681654</t>
-  </si>
-  <si>
-    <t>3772.27130938</t>
-  </si>
-  <si>
-    <t>3865.70321885</t>
-  </si>
-  <si>
-    <t>4015.0719189</t>
-  </si>
-  <si>
-    <t>3997.62615301</t>
-  </si>
-  <si>
-    <t>4032.92153818</t>
-  </si>
-  <si>
-    <t>4061.78569914</t>
-  </si>
-  <si>
-    <t>4107.88007452</t>
-  </si>
-  <si>
-    <t>4188.62418717</t>
-  </si>
-  <si>
-    <t>4311.66931983</t>
-  </si>
-  <si>
-    <t>4459.96772414</t>
-  </si>
-  <si>
-    <t>4542.70540818</t>
-  </si>
-  <si>
-    <t>4821.40674335</t>
-  </si>
-  <si>
-    <t>5097.79560419</t>
-  </si>
-  <si>
-    <t>5145.45046145</t>
-  </si>
-  <si>
-    <t>5213.35900296</t>
-  </si>
-  <si>
-    <t>5466.89918797</t>
-  </si>
-  <si>
-    <t>5640.74918858</t>
-  </si>
-  <si>
-    <t>5646.67213691</t>
+    <t>1116</t>
+  </si>
+  <si>
+    <t>1594</t>
+  </si>
+  <si>
+    <t>2651</t>
+  </si>
+  <si>
+    <t>2702</t>
+  </si>
+  <si>
+    <t>2751</t>
+  </si>
+  <si>
+    <t>2801</t>
+  </si>
+  <si>
+    <t>2848</t>
+  </si>
+  <si>
+    <t>2590</t>
+  </si>
+  <si>
+    <t>3410</t>
+  </si>
+  <si>
+    <t>3354</t>
+  </si>
+  <si>
+    <t>3539</t>
+  </si>
+  <si>
+    <t>3645</t>
+  </si>
+  <si>
+    <t>3714</t>
+  </si>
+  <si>
+    <t>4280</t>
+  </si>
+  <si>
+    <t>4176</t>
+  </si>
+  <si>
+    <t>4222</t>
+  </si>
+  <si>
+    <t>4752</t>
+  </si>
+  <si>
+    <t>5074</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>4876</t>
+  </si>
+  <si>
+    <t>4262</t>
+  </si>
+  <si>
+    <t>4420</t>
+  </si>
+  <si>
+    <t>3818</t>
+  </si>
+  <si>
+    <t>3771</t>
+  </si>
+  <si>
+    <t>3754</t>
+  </si>
+  <si>
+    <t>3806</t>
+  </si>
+  <si>
+    <t>3995</t>
+  </si>
+  <si>
+    <t>4117</t>
+  </si>
+  <si>
+    <t>4935</t>
+  </si>
+  <si>
+    <t>5072</t>
+  </si>
+  <si>
+    <t>5926</t>
+  </si>
+  <si>
+    <t>6247</t>
+  </si>
+  <si>
+    <t>7141</t>
+  </si>
+  <si>
+    <t>7176</t>
+  </si>
+  <si>
+    <t>7401</t>
+  </si>
+  <si>
+    <t>7262</t>
+  </si>
+  <si>
+    <t>7599</t>
+  </si>
+  <si>
+    <t>7578</t>
+  </si>
+  <si>
+    <t>7973</t>
+  </si>
+  <si>
+    <t>7911</t>
+  </si>
+  <si>
+    <t>7571</t>
+  </si>
+  <si>
+    <t>6540</t>
+  </si>
+  <si>
+    <t>6044</t>
+  </si>
+  <si>
+    <t>5900.50932029287</t>
+  </si>
+  <si>
+    <t>6456.12314842036</t>
+  </si>
+  <si>
+    <t>6460.66282413885</t>
+  </si>
+  <si>
+    <t>6538.17325423484</t>
+  </si>
+  <si>
+    <t>6760.10846508219</t>
+  </si>
+  <si>
+    <t>6783.22904950219</t>
+  </si>
+  <si>
+    <t>6942.458967216</t>
+  </si>
+  <si>
+    <t>7120.49369152888</t>
+  </si>
+  <si>
+    <t>7340.49368937669</t>
+  </si>
+  <si>
+    <t>7621.84061961081</t>
+  </si>
+  <si>
+    <t>7982.74070250386</t>
+  </si>
+  <si>
+    <t>8394.05508411191</t>
+  </si>
+  <si>
+    <t>8669.62464947069</t>
+  </si>
+  <si>
+    <t>9288.61659605206</t>
+  </si>
+  <si>
+    <t>9860.80814524952</t>
+  </si>
+  <si>
+    <t>10404.5617208557</t>
+  </si>
+  <si>
+    <t>10938.8043833142</t>
+  </si>
+  <si>
+    <t>11378.2562593997</t>
+  </si>
+  <si>
+    <t>11651.249751168</t>
+  </si>
+  <si>
+    <t>11601.0875374148</t>
+  </si>
+  <si>
+    <t>11615</t>
+  </si>
+  <si>
+    <t>11523</t>
+  </si>
+  <si>
+    <t>11488</t>
+  </si>
+  <si>
+    <t>11519</t>
+  </si>
+  <si>
+    <t>11529</t>
   </si>
   <si>
     <t>Description</t>
@@ -3579,6 +3594,108 @@
         <v>71</v>
       </c>
     </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="B193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C193" t="s">
+        <v>6</v>
+      </c>
+      <c r="D193" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E193" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="B194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194" t="s">
+        <v>6</v>
+      </c>
+      <c r="D194" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E194" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="B195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C195" t="s">
+        <v>6</v>
+      </c>
+      <c r="D195" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E195" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="B196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C196" t="s">
+        <v>6</v>
+      </c>
+      <c r="D196" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E196" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="B197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C197" t="s">
+        <v>6</v>
+      </c>
+      <c r="D197" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E197" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="B198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C198" t="s">
+        <v>6</v>
+      </c>
+      <c r="D198" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E198" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -3594,50 +3711,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
